--- a/databases/Contracts.xlsx
+++ b/databases/Contracts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/d_aggarwal_sap_com/Documents/Duales Studium/HWG LU/Vorlesungen/2. Semester/Aktuelle Themen der IT/Repo/ATdIT_Gruppe5/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I518185\OneDrive - SAP SE\Duales Studium\HWG LU\Vorlesungen\2. Semester\Aktuelle Themen der IT\Repo\ATdIT_Gruppe5\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2688AB47-0FA7-4641-8E7A-F6D4726F43F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54785C-77D9-49A8-9F8D-9D09D1BE9C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4D16F701-1BC3-48A2-907F-84BDB4148723}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>due_date</t>
   </si>
   <si>
-    <t>order_id</t>
+    <t>contract_id</t>
   </si>
 </sst>
 </file>
@@ -423,12 +423,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
